--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo1-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo1-Lrp6.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.08030833333333</v>
+        <v>13.17295566666667</v>
       </c>
       <c r="N2">
-        <v>42.240925</v>
+        <v>39.518867</v>
       </c>
       <c r="O2">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="P2">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="Q2">
-        <v>2.220065682097222</v>
+        <v>2.077001874889445</v>
       </c>
       <c r="R2">
-        <v>19.980591138875</v>
+        <v>18.693016874005</v>
       </c>
       <c r="S2">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="T2">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,22 +623,22 @@
         <v>129.459667</v>
       </c>
       <c r="O3">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="P3">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="Q3">
-        <v>6.804040487333888</v>
+        <v>6.804040487333889</v>
       </c>
       <c r="R3">
-        <v>61.23636438600499</v>
+        <v>61.236364386005</v>
       </c>
       <c r="S3">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="T3">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.31989366666667</v>
+        <v>21.06166566666667</v>
       </c>
       <c r="N4">
-        <v>33.959681</v>
+        <v>63.184997</v>
       </c>
       <c r="O4">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="P4">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="Q4">
-        <v>1.784826500912778</v>
+        <v>3.320827928439445</v>
       </c>
       <c r="R4">
-        <v>16.063438508215</v>
+        <v>29.887451355955</v>
       </c>
       <c r="S4">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="T4">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.909414</v>
+        <v>21.076417</v>
       </c>
       <c r="N5">
-        <v>65.72824199999999</v>
+        <v>63.229251</v>
       </c>
       <c r="O5">
-        <v>0.2421924229181179</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="P5">
-        <v>0.242192422918118</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="Q5">
-        <v>3.454493821069999</v>
+        <v>3.323153795751667</v>
       </c>
       <c r="R5">
-        <v>31.09044438962999</v>
+        <v>29.908384161765</v>
       </c>
       <c r="S5">
-        <v>0.2421924229181179</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="T5">
-        <v>0.242192422918118</v>
+        <v>0.214051442191299</v>
       </c>
     </row>
   </sheetData>
